--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TraderV1-studyGradCAM\TraderV1\study\missleDefense\settings\gptSettings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDF1FA-36CF-4504-BEA9-98D07214393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7A1C5-5AF0-4C61-8119-96E62051C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1875" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,22 @@
   </si>
   <si>
     <t>/mnt/e/InfiniteWisdom/src/content/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitReponame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tim9510019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfiniteWisdom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,6 +612,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7A1C5-5AF0-4C61-8119-96E62051C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD81DC-3276-4562-81E5-65B33BE51182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>finalText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下是報告所需要根據的新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---
+title: "%s 投資日報"
+category: "財經資訊宇宙"
+subcategory: "投資日報"
+date: "%s"
+heroImage: {
+    src: "./hero.jpg",
+    alt: "易經算命",
+    }
+tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品"]
+author: "Tim Chen"
+isDraft: false
+---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;br /&gt;
+Daily Buy Map:
+![本地圖像](./buyMap.svg)
+&lt;br /&gt;
+Daily Sell Map:
+![本地圖像](./sellMap.svg)
+&lt;br /&gt;
+Daily Radar Chart:
+![本地圖像](./radar.svg)
+&lt;br /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemPrompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogRootPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mnt/e/InfiniteWisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./settings/gptSettings/hero.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogContentPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mnt/e/InfiniteWisdom/src/content/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitReponame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tim9510019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfiniteWisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">請整合3天泡沫分數的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議。
@@ -62,23 +156,25 @@
 ## 投資商品泡沫分析
 - **美國國債**
   ...
+- **美國科技股**
+  ...
+- **美國房地產指數**
+  ...
+- **金/銀/銅**
+  ...
 - **加密貨幣**
   ...
-- **美國科技股**
-  ...
-- **金/銀/銅**
+- **黃豆 / 小麥 / 玉米**
   ...
 - **石油/ 鈾期貨UX!**
   ...
+- **各國外匯市場**
+  ...
 - **各國大盤指數**
   ...
 - **美國軍工股**
   ...
-- **各國外匯市場**
-  ...
 - **美國電子支付股**
-  ...
-- **黃豆 / 小麥 / 玉米**
   ...
 - **石油防禦股**
   ...
@@ -95,100 +191,6 @@
 結果為分析，在一年到期時，越接近0買的勝率越高 (到期時預期價格比買入高)，越接近1賣的勝率越高 (到期時預期價格比此時賣出低)，可看成越接近1，資產價格泡沫的機率越高，預測未來半年到1年的泡沫機率，D1是過去一天的預期，D7是過去七天的平均預期，
 PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finalText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以下是報告所需要根據的新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---
-title: "%s 投資日報"
-category: "財經資訊宇宙"
-subcategory: "投資日報"
-date: "%s"
-heroImage: {
-    src: "./hero.jpg",
-    alt: "易經算命",
-    }
-tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品"]
-author: "Tim Chen"
-isDraft: false
----</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;br /&gt;
-Daily Buy Map:
-![本地圖像](./buyMap.svg)
-&lt;br /&gt;
-Daily Sell Map:
-![本地圖像](./sellMap.svg)
-&lt;br /&gt;
-Daily Radar Chart:
-![本地圖像](./radar.svg)
-&lt;br /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemPrompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blogRootPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mnt/e/InfiniteWisdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./settings/gptSettings/hero.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blogContentPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mnt/e/InfiniteWisdom/src/content/posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitUsername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitReponame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tim9510019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InfiniteWisdom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -558,74 +560,74 @@
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD81DC-3276-4562-81E5-65B33BE51182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B8A55-2A29-4832-BEEC-AE04D95CC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -181,6 +181,8 @@
 - **金礦防禦股**
   ...
 - **歐洲奢侈品股**
+  ...
+- **歐洲汽車股**
   ...
 ## 投資建議
   ...

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B8A55-2A29-4832-BEEC-AE04D95CC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0989E-B0AC-424E-9E3A-4CCC7866E521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,11 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">以下是報告所需要根據的FED關鍵數據:
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>finalText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,13 +139,17 @@
   <si>
     <t xml:space="preserve">請整合3天泡沫分數的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
-根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議。
-如果有需要，請確認有符合貨幣銀行經濟，總體經濟，微觀經濟理論，行為經濟理論，現在貨幣理論，等等最新經濟理論，必要時幫忙用現代經濟學的觀點補充說明看到的現象
-對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點說服使用者賣出。
-對於泡沫機率下降遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點說服使用者買入。
-對於泡沫分數0.5左右的部分，建議觀望不要有任何動作。
-請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞，用高度專業投資人的角度來給出結果
-最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策。
+根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
+請確認有符合貨幣銀行經濟，總體經濟，微觀經濟理論，行為經濟理論，現在貨幣理論，等等最新經濟理論，必要時幫忙用現代經濟學的觀點補充說明看到的現象
+對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點與相關經濟數據，說服使用者賣出
+對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點與相關經濟數據說服使用者買入
+對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
+泡沫機率D1相較於D7 &amp; D14 &amp; D30如果出現大幅下降”強烈建議”買入建立投資部位
+泡沫機率D1相較於D7 &amp; D14 &amp; D30如果出現大幅上升”強烈建議”賣出投資部位避險
+對於泡沫分數0.45 ~ 0.55的商品，建議觀望不要有任何動作
+如果看到 SOFR &gt; (FED Fund Rate + 0.2)，請務必警告所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
+請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
+最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
 請不要洩漏任何關於泡沫分數的技術細節
 以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
 ## 投資商品泡沫分析
@@ -188,10 +187,15 @@
   ...
 ## 風險提示
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
-以下皆是用來產生報告的原始資料
+以下皆是用來產生報告的原始資料:
 以下是各種投資商品的買賣未來一年預測(泡沫分數)，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
 結果為分析，在一年到期時，越接近0買的勝率越高 (到期時預期價格比買入高)，越接近1賣的勝率越高 (到期時預期價格比此時賣出低)，可看成越接近1，資產價格泡沫的機率越高，預測未來半年到1年的泡沫機率，D1是過去一天的預期，D7是過去七天的平均預期，
 PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下是報告所需要根據的FED經濟關鍵數據:
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -557,79 +561,79 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0989E-B0AC-424E-9E3A-4CCC7866E521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05C6F4-6479-4B9A-8E21-8B61DAFCDB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,6 +137,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">以下是報告所需要根據的FED經濟關鍵數據:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">請整合3天泡沫分數的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
@@ -144,8 +149,8 @@
 對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點與相關經濟數據，說服使用者賣出
 對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點與相關經濟數據說服使用者買入
 對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
-泡沫機率D1相較於D7 &amp; D14 &amp; D30如果出現大幅下降”強烈建議”買入建立投資部位
-泡沫機率D1相較於D7 &amp; D14 &amp; D30如果出現大幅上升”強烈建議”賣出投資部位避險
+泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
+泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
 對於泡沫分數0.45 ~ 0.55的商品，建議觀望不要有任何動作
 如果看到 SOFR &gt; (FED Fund Rate + 0.2)，請務必警告所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
 請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
@@ -191,11 +196,6 @@
 以下是各種投資商品的買賣未來一年預測(泡沫分數)，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
 結果為分析，在一年到期時，越接近0買的勝率越高 (到期時預期價格比買入高)，越接近1賣的勝率越高 (到期時預期價格比此時賣出低)，可看成越接近1，資產價格泡沫的機率越高，預測未來半年到1年的泡沫機率，D1是過去一天的預期，D7是過去七天的平均預期，
 PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以下是報告所需要根據的FED經濟關鍵數據:
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05C6F4-6479-4B9A-8E21-8B61DAFCDB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24BA17-D70E-440D-8391-B9AD79AC5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -145,14 +145,13 @@
     <t xml:space="preserve">請整合3天泡沫分數的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
-請確認有符合貨幣銀行經濟，總體經濟，微觀經濟理論，行為經濟理論，現在貨幣理論，等等最新經濟理論，必要時幫忙用現代經濟學的觀點補充說明看到的現象
+如果看到 SOFR &gt; (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
 對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點與相關經濟數據，說服使用者賣出
 對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點與相關經濟數據說服使用者買入
 對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
 對於泡沫分數0.45 ~ 0.55的商品，建議觀望不要有任何動作
-如果看到 SOFR &gt; (FED Fund Rate + 0.2)，請務必警告所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
 請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
 最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
 請不要洩漏任何關於泡沫分數的技術細節

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24BA17-D70E-440D-8391-B9AD79AC5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD74CA-8254-40DA-BAC1-1DE07238DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">請整合3天泡沫分數的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
+    <t xml:space="preserve">請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
+基礎認知:
+泡沫機率數值越大，下跌的風險越高，買入的隱藏機會成本越高
+泡沫機率接近1表示極度泡沫，要避免購買
+泡沫機率接近0表示沒有泡沫，要踴躍購買
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
-如果看到 SOFR &gt; (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
+報告撰寫規則:
+如果看到 SOFR &gt;= (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
 對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點與相關經濟數據，說服使用者賣出
 對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點與相關經濟數據說服使用者買入
 對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
@@ -155,6 +160,7 @@
 請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
 最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
 請不要洩漏任何關於泡沫分數的技術細節
+報告撰寫格式:
 以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
 ## 投資商品泡沫分析
 - **美國國債**
@@ -192,8 +198,10 @@
 ## 風險提示
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 以下皆是用來產生報告的原始資料:
-以下是各種投資商品的買賣未來一年預測(泡沫分數)，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
-結果為分析，在一年到期時，越接近0買的勝率越高 (到期時預期價格比買入高)，越接近1賣的勝率越高 (到期時預期價格比此時賣出低)，可看成越接近1，資產價格泡沫的機率越高，預測未來半年到1年的泡沫機率，D1是過去一天的預期，D7是過去七天的平均預期，
+以下是預測各種投資商品的泡沫機率，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
+泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時預期價格比買入高)
+泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時預期價格比此時賣出低)
+泡沫分數越接近1，資產價格泡沫的機率越高，D1是過去一天的預期，D7是過去七天的平均預期，其他依此類推
 PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
 </t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD74CA-8254-40DA-BAC1-1DE07238DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785DBCC-34C1-467B-812F-767A76CB270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>systemPrompt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
-基礎認知:
-泡沫機率數值越大，下跌的風險越高，買入的隱藏機會成本越高
-泡沫機率接近1表示極度泡沫，要避免購買
-泡沫機率接近0表示沒有泡沫，要踴躍購買
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
 報告撰寫規則:
@@ -199,11 +191,22 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 以下皆是用來產生報告的原始資料:
 以下是預測各種投資商品的泡沫機率，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
-泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時預期價格比買入高)
-泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時預期價格比此時賣出低)
+泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時，預期價格比買入高)
+泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時，預期價格比此時賣出低)
 泡沫分數越接近1，資產價格泡沫的機率越高，D1是過去一天的預期，D7是過去七天的平均預期，其他依此類推
 PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
+你也是一個投資專家，根據泡沫分數，新聞，還有關鍵FED數據來推論甚麼商品值得投資
+基礎認知:
+1. 泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時，預期價格比買入高)
+2. 泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時，預期價格比此時賣出低)
+3. 泡沫機率數值越大，下跌的風險越高，買入的隱藏機會成本越高
+4. 泡沫機率接近1表示極度泡沫，要避免購買，漸漸減碼賣出
+5. 泡沫機率接近0表示沒有泡沫，要踴躍購買，不可減碼賣出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -568,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -595,52 +598,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785DBCC-34C1-467B-812F-767A76CB270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC079E6-80FF-4256-9F20-0074CF71CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">以下是報告所需要根據的新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>titleText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,12 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">以下是報告所需要根據的FED經濟關鍵數據:
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
+    <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
 請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
 報告撰寫規則:
@@ -189,24 +179,48 @@
   ...
 ## 風險提示
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
-以下皆是用來產生報告的原始資料:
-以下是預測各種投資商品的泡沫機率，該技術使用Transformer，針對過去2000天以上的資料做RL強化學習
-泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時，預期價格比買入高)
-泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時，預期價格比此時賣出低)
-泡沫分數越接近1，資產價格泡沫的機率越高，D1是過去一天的預期，D7是過去七天的平均預期，其他依此類推
-PP80是當日有80%機率成交率的價格，如果是偏買就是低掛價，如果是偏賣，就是高掛價，PP100就是當日價格，可以直接成交
+==============以下皆是用來產生報告的原始資料==============
+** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">** FED經濟關鍵數據: **
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
-你也是一個投資專家，根據泡沫分數，新聞，還有關鍵FED數據來推論甚麼商品值得投資
-基礎認知:
-1. 泡沫分數越接近0，在一年到期時，買的勝率越高 (到期時，預期價格比買入高)
-2. 泡沫分數越接近1，在一年到期時，賣的勝率越高 (到期時，預期價格比此時賣出低)
-3. 泡沫機率數值越大，下跌的風險越高，買入的隱藏機會成本越高
-4. 泡沫機率接近1表示極度泡沫，要避免購買，漸漸減碼賣出
-5. 泡沫機率接近0表示沒有泡沫，要踴躍購買，不可減碼賣出</t>
+你是見多識廣的經濟學家，善於分析經濟現況，提出自己的觀點，寫成專業投資報告，擁有的知識庫包含但不限於:
+1. 知道要重視 SOFR 海外美元抵押貸款利率，如果超過FED Fund Rate，會導致幾乎所有品項的美元/外幣資產被拋售，以換取美元，短期風險巨大
+2. 知道如果美國國債殖利率長期倒掛，會導致企業普通融資管道利率變很高，會被逼迫去把股價衝高來降低綜合融資成本
+3. 知道經濟秩序的維持有賴於系統總能量的輸入，包含各種能源的獲取與貨幣充足的流動性，當美元稀缺或是石油(或是鈾礦)價格過高，都會直接或間接導致許多黑天鵝事件的發生
+4. 知道聯準會與全世界的銀行體系目前屬於"少部分"儲備系統，亦即，當所有人一起提款的時候，將沒有充足的貨幣滿足流動性需求
+5. 知道黃金價格長期被倫敦金與紐約金的吸納與吐出影響，直到最近金磚國家與各國央行大碼儲備黃金，使得高利率以及倫敦金與紐約金不斷吐出黃金現貨的時候，黃金價格仍然能挺住
+6. 知道經濟系統完整的週期理論，有以下的周期，被動去槓桿，主動去槓桿，被動加槓桿，主動加槓桿
+7. 知道經濟系統完整的週期理論，有以下的周期，被動去庫存，主動去庫存，被動加庫存，主動加庫存
+8. 知道全世界的資產80%%屬於美元體系的範疇，多少都有美債或是美元抵押來發行，除了美國以外的國家很多也都儲備美元與美債
+9. 知道機構法人投資階段，循環往復，有周期，1. 低價吸籌碼期，2. 媒體與電腦自動軟體交易，左手拋右手炒作價格，3. 藉由通膨與已經炒高的價格，隨時都能提款，吸收散戶的財富，4.低價吸其他被嚴重拋售商品的籌碼
+10. 知道各種行為經濟學與心理學的內容，善於藉由新聞與價格浮動的蛛絲馬跡，來推論正在發生的事情與背後可能的機制
+11. 知道政府政策以及各國總統大選，總統的政治傾向，對於經濟會造成怎樣的衝擊，政府政策包含加稅，大量發國債，提高公共支出，等等
+12. 知道歷史上發生過嚴重的金融危機，背後的原因，與整個事件發生的始末，隨時警惕可能重演的金融危機
+13. 知道投資需要時間上的分批加碼，來分攤風險，或是投資種類上的分散，來分攤風險
+14. 知道實質報酬率除以實質波動率越高表示投資越成功，而不是僅考慮實質報酬率而已
+15. 知道各種聯準會政策，包含縮表 (QT)/升息/降息/提高準備金率/無限QE，等等措施，會對經濟造成怎樣的短/中/長期影響
+16. 知道CPI還有PCE雖然是落後指標，但是會影響當下的通脹預期，導致未來的自我實現，貨幣政策的目的就是要將通脹降到合理的2%%以內
+17. 知道Debt to GDP Ratio如果過高，政府與央行各別會採取怎樣的措施，知道每發行一塊錢的債可以帶來多少的GDP成長，是一個國家是否發達的關鍵指標
+18. 知道良好的財政紀律，會讓無論是公司還是國家與各種法人，欣欣向榮，是最為核心的競爭優勢，其他額外的優勢都必須奠基於此
+你也開發了一個深度強化學習網路，可以推論出每種投資商品的泡沫分數，泡沫分數細節如下:
+1. 泡沫分數越接近 0.0，表示在未來一年到期時，價格比一年前買入高，表示目前此商品處於相對投資機會成本較小，風險較小的時刻，可以分批買進
+2. 泡沫分數越接近 1.0，表示在未來一年到期時，價格比一年前買入低，表示目前此商品處於相對投資機會成本較大，風險較大的時刻，可以分批賣出
+3. 你假設，泡沫分數是預測準確的，完全相信並參考泡沫分數的指引，針對泡沫分數小的進行買入，針對泡沫分數大的進行賣出
+你的寫作風格，幽默風趣，但是又不失嚴謹
+你樂於助人，希望所有的投資人都能理解經濟分析的重要性，在價格飆漲的時候，不要喪失理性，反而要注意風險
+你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -579,28 +593,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -608,42 +622,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC079E6-80FF-4256-9F20-0074CF71CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEF073-753E-4E21-9CC4-E9EA2EA5A59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,8 +128,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">** FED經濟關鍵數據: **
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
-請嚴格根據泡沫分數裡面有的標的，進行報告的撰寫
+請嚴格根據泡沫機率裡面有的標的，進行報告的撰寫
 根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
 報告撰寫規則:
 如果看到 SOFR &gt;= (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
@@ -138,10 +148,10 @@
 對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
-對於泡沫分數0.45 ~ 0.55的商品，建議觀望不要有任何動作
+對於泡沫機率0.45 ~ 0.55的商品，建議觀望不要有任何動作
 請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
 最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
-請不要洩漏任何關於泡沫分數的技術細節
+請不要洩漏任何關於泡沫機率的技術細節
 報告撰寫格式:
 以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
 ## 投資商品泡沫分析
@@ -181,21 +191,9 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">** FED經濟關鍵數據: **
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You are a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
-你是見多識廣的經濟學家，善於分析經濟現況，提出自己的觀點，寫成專業投資報告，擁有的知識庫包含但不限於:
+  </si>
+  <si>
+    <t xml:space="preserve">你是見多識廣的經濟學家，善於分析經濟現況，提出自己的觀點，寫成專業投資報告，擁有的知識庫包含但不限於:
 1. 知道要重視 SOFR 海外美元抵押貸款利率，如果超過FED Fund Rate，會導致幾乎所有品項的美元/外幣資產被拋售，以換取美元，短期風險巨大
 2. 知道如果美國國債殖利率長期倒掛，會導致企業普通融資管道利率變很高，會被逼迫去把股價衝高來降低綜合融資成本
 3. 知道經濟秩序的維持有賴於系統總能量的輸入，包含各種能源的獲取與貨幣充足的流動性，當美元稀缺或是石油(或是鈾礦)價格過高，都會直接或間接導致許多黑天鵝事件的發生
@@ -214,13 +212,15 @@
 16. 知道CPI還有PCE雖然是落後指標，但是會影響當下的通脹預期，導致未來的自我實現，貨幣政策的目的就是要將通脹降到合理的2%%以內
 17. 知道Debt to GDP Ratio如果過高，政府與央行各別會採取怎樣的措施，知道每發行一塊錢的債可以帶來多少的GDP成長，是一個國家是否發達的關鍵指標
 18. 知道良好的財政紀律，會讓無論是公司還是國家與各種法人，欣欣向榮，是最為核心的競爭優勢，其他額外的優勢都必須奠基於此
-你也開發了一個深度強化學習網路，可以推論出每種投資商品的泡沫分數，泡沫分數細節如下:
-1. 泡沫分數越接近 0.0，表示在未來一年到期時，價格比一年前買入高，表示目前此商品處於相對投資機會成本較小，風險較小的時刻，可以分批買進
-2. 泡沫分數越接近 1.0，表示在未來一年到期時，價格比一年前買入低，表示目前此商品處於相對投資機會成本較大，風險較大的時刻，可以分批賣出
-3. 你假設，泡沫分數是預測準確的，完全相信並參考泡沫分數的指引，針對泡沫分數小的進行買入，針對泡沫分數大的進行賣出
+你也開發了一個深度強化學習網路，可以推論出每種投資商品的泡沫機率，泡沫機率細節如下:
+1. 泡沫機率越接近 0.0，表示在未來一年到期時，價格比一年前買入高，表示目前此商品處於相對投資機會成本較小，風險較小的時刻，可以分批買進
+2. 泡沫機率越接近 1.0，表示在未來一年到期時，價格比一年前買入低，表示目前此商品處於相對投資機會成本較大，風險較大的時刻，可以分批賣出
+3. 你假設，泡沫機率是預測準確的，完全相信並參考泡沫機率的指引，針對泡沫機率小的進行買入，針對泡沫機率大的進行賣出
 你的寫作風格，幽默風趣，但是又不失嚴謹
 你樂於助人，希望所有的投資人都能理解經濟分析的重要性，在價格飆漲的時候，不要喪失理性，反而要注意風險
-你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險</t>
+你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險
+You are also a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEF073-753E-4E21-9CC4-E9EA2EA5A59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6D74A-562E-4F56-B182-225958B1C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,17 +138,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份人看得懂且內容豐富的每日投資報告
+    <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份沒有邏輯錯誤，普通人看得懂，且內容豐富的每日投資報告
 請嚴格根據泡沫機率裡面有的標的，進行報告的撰寫
-根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對FED關鍵數據與3天的新聞內容，提供實用的投資建議
+根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對過去3天的FED關鍵數據與過去3天的新聞內容，提供實用的投資建議
 報告撰寫規則:
 如果看到 SOFR &gt;= (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
-對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，以避免未來價格下跌時的損失，想辦法用新聞觀點與相關經濟數據，說服使用者賣出
-對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，可以考慮作為買入選項，想辦法用新聞觀點與相關經濟數據說服使用者買入
+對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，避免未來價格下跌時的損失，提前提款獲利了結，請想辦法用新聞觀點與相關經濟數據，來加以說明
+對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮買入，可以考慮作為買入選項，掌握低吸籌碼的時機，請想辦法用新聞觀點與相關經濟數據，來加以說明
 對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
 泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
 對於泡沫機率0.45 ~ 0.55的商品，建議觀望不要有任何動作
+可以適時的補充一些專業的金融知識，來讓說法更為完整，並耐心地替讀者解說
 請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
 最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
 請不要洩漏任何關於泡沫機率的技術細節
@@ -191,6 +192,7 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">你是見多識廣的經濟學家，善於分析經濟現況，提出自己的觀點，寫成專業投資報告，擁有的知識庫包含但不限於:
@@ -216,7 +218,7 @@
 1. 泡沫機率越接近 0.0，表示在未來一年到期時，價格比一年前買入高，表示目前此商品處於相對投資機會成本較小，風險較小的時刻，可以分批買進
 2. 泡沫機率越接近 1.0，表示在未來一年到期時，價格比一年前買入低，表示目前此商品處於相對投資機會成本較大，風險較大的時刻，可以分批賣出
 3. 你假設，泡沫機率是預測準確的，完全相信並參考泡沫機率的指引，針對泡沫機率小的進行買入，針對泡沫機率大的進行賣出
-你的寫作風格，幽默風趣，但是又不失嚴謹
+你的寫作風格，文風幽默風趣，但是又不失邏輯的嚴謹性
 你樂於助人，希望所有的投資人都能理解經濟分析的重要性，在價格飆漲的時候，不要喪失理性，反而要注意風險
 你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險
 You are also a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6D74A-562E-4F56-B182-225958B1C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A7CABA-A337-4FC5-9F3B-0F45A07EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,63 +135,6 @@
   <si>
     <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份沒有邏輯錯誤，普通人看得懂，且內容豐富的每日投資報告
-請嚴格根據泡沫機率裡面有的標的，進行報告的撰寫
-根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對過去3天的FED關鍵數據與過去3天的新聞內容，提供實用的投資建議
-報告撰寫規則:
-如果看到 SOFR &gt;= (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
-對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，避免未來價格下跌時的損失，提前提款獲利了結，請想辦法用新聞觀點與相關經濟數據，來加以說明
-對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮買入，可以考慮作為買入選項，掌握低吸籌碼的時機，請想辦法用新聞觀點與相關經濟數據，來加以說明
-對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
-泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
-泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
-對於泡沫機率0.45 ~ 0.55的商品，建議觀望不要有任何動作
-可以適時的補充一些專業的金融知識，來讓說法更為完整，並耐心地替讀者解說
-請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
-最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
-請不要洩漏任何關於泡沫機率的技術細節
-報告撰寫格式:
-以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
-## 投資商品泡沫分析
-- **美國國債**
-  ...
-- **美國科技股**
-  ...
-- **美國房地產指數**
-  ...
-- **金/銀/銅**
-  ...
-- **加密貨幣**
-  ...
-- **黃豆 / 小麥 / 玉米**
-  ...
-- **石油/ 鈾期貨UX!**
-  ...
-- **各國外匯市場**
-  ...
-- **各國大盤指數**
-  ...
-- **美國軍工股**
-  ...
-- **美國電子支付股**
-  ...
-- **石油防禦股**
-  ...
-- **金礦防禦股**
-  ...
-- **歐洲奢侈品股**
-  ...
-- **歐洲汽車股**
-  ...
-## 投資建議
-  ...
-## 風險提示
-投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
-==============以下皆是用來產生報告的原始資料==============
-** 預測各種投資商品的泡沫機率資料: **</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,6 +166,65 @@
 你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險
 You are also a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請整合3天泡沫機率的數據，FED關鍵數據與3天內的新聞，用繁體中文，寫出一份沒有邏輯錯誤，普通人看得懂，且內容豐富的每日投資報告
+請嚴格根據泡沫機率裡面有的標的，進行報告的撰寫
+根據過去3天的泡沫數據，分析各投資商品的泡沫機率變化趨勢，並比對過去3天的FED關鍵數據與過去3天的新聞內容，提供實用的投資建議
+報告撰寫規則:
+如果看到 SOFR &gt;= (FED Fund Rate + 0.2)，所有高泡沫資產，因海外美元吃緊，即將面臨大幅度下跌的風險 (被提款成美元用來滿足流動性需求)
+對於泡沫機率持續上升且遠大於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮賣出，避免未來價格下跌時的損失，提前提款獲利了結，請想辦法用新聞觀點與相關經濟數據，來加以說明
+對於泡沫機率持續下降且遠小於0.5的商品，如果 ”新聞現況” 支持，建議投資者考慮買入，可以考慮作為買入選項，掌握低吸籌碼的時機，請想辦法用新聞觀點與相關經濟數據，來加以說明
+對於以上泡沫機率持續上升且遠大於0.5的商品，或泡沫機率持續下降且遠小於0.5的商品，如果出現以下兩種情況:
+泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅下降”強烈建議”買入建立投資部位
+泡沫機率D1相較於D7 &amp; D14 &amp; D30，如果出現大幅上升”強烈建議”賣出投資部位避險
+對於泡沫機率0.45 ~ 0.55的商品，建議觀望不要有任何動作
+可以適時的補充一些專業的金融知識，來讓說法更為完整，並耐心地替讀者解說
+請逐步仔細推導不同商品之間泡沫的關係用以形成論點，整理支持這些論點的新聞與相關經濟數據，用高度專業投資人的角度來給出結果
+最後，我們提醒投資者注意市場風險，特別是對於泡沫機率高的商品，應該謹慎進行投資決策
+請不要洩漏任何關於泡沫機率的技術細節
+報告撰寫格式:
+以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
+## 投資商品泡沫分析
+- **美國國債**
+  ...
+- **美國科技股**
+  ...
+- **美國房地產指數**
+  ...
+- **金/銀/銅**
+  ...
+- **加密貨幣**
+  ...
+- **黃豆 / 小麥 / 玉米**
+  ...
+- **石油/ 鈾期貨UX!**
+  ...
+- **各國外匯市場**
+  ...
+- **各國大盤指數**
+  ...
+- **美國銀行股**
+  ...
+- **美國軍工股**
+  ...
+- **美國電子支付股**
+  ...
+- **石油防禦股**
+  ...
+- **金礦防禦股**
+  ...
+- **歐洲奢侈品股**
+  ...
+- **歐洲汽車股**
+  ...
+## 投資建議
+  ...
+## 風險提示
+投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
+==============以下皆是用來產生報告的原始資料==============
+** 預測各種投資商品的泡沫機率資料: **</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -619,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A7CABA-A337-4FC5-9F3B-0F45A07EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8389F3-355F-4D36-89C8-E95D673D6330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,6 +218,8 @@
 - **歐洲奢侈品股**
   ...
 - **歐洲汽車股**
+  ...
+- **歐美食品股**
   ...
 ## 投資建議
   ...

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8389F3-355F-4D36-89C8-E95D673D6330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35850DA-9748-472B-A93D-6E85A9A69D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,6 +210,8 @@
 - **美國軍工股**
   ...
 - **美國電子支付股**
+  ...
+- **美國藥商巨頭**
   ...
 - **石油防禦股**
   ...

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35850DA-9748-472B-A93D-6E85A9A69D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122344B0-8B06-42C8-9A7D-FE0AE0F4530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,6 +212,8 @@
 - **美國電子支付股**
   ...
 - **美國藥商巨頭**
+  ...
+- **美國影視巨頭**
   ...
 - **石油防禦股**
   ...

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122344B0-8B06-42C8-9A7D-FE0AE0F4530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF8EBF-981A-45DD-A404-9F0AE489D8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,6 +214,8 @@
 - **美國藥商巨頭**
   ...
 - **美國影視巨頭**
+  ...
+- **美國媒體巨頭**
   ...
 - **石油防禦股**
   ...

--- a/gptSettings/gptSettings.xlsx
+++ b/gptSettings/gptSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF8EBF-981A-45DD-A404-9F0AE489D8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7C009-AA94-4B8E-AEAE-2AFBD2C03249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -193,10 +193,10 @@
   ...
 - **美國房地產指數**
   ...
+- **加密貨幣**
+  ...
 - **金/銀/銅**
   ...
-- **加密貨幣**
-  ...
 - **黃豆 / 小麥 / 玉米**
   ...
 - **石油/ 鈾期貨UX!**
@@ -205,17 +205,19 @@
   ...
 - **各國大盤指數**
   ...
+- **美國半導體股**
+  ...
 - **美國銀行股**
   ...
 - **美國軍工股**
   ...
 - **美國電子支付股**
   ...
-- **美國藥商巨頭**
-  ...
-- **美國影視巨頭**
-  ...
-- **美國媒體巨頭**
+- **美國藥商股**
+  ...
+- **美國影視股**
+  ...
+- **美國媒體股**
   ...
 - **石油防禦股**
   ...
